--- a/Healthcare/Zoetis.xlsx
+++ b/Healthcare/Zoetis.xlsx
@@ -1,35 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09FE6D8-C142-BC46-AF94-0CCAE2C4D8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90517FC8-4129-F641-AFA9-74E091AC298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$O$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$O$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$O$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$19:$O$19</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Sheet 1'!$B$3:$O$3</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$106:$O$106</definedName>
-  </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -970,18 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,12 +990,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1039,6 +1007,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2319,11 +2305,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>199.88</v>
+    <v>187.81989999999999</v>
     <v>124.14830000000001</v>
-    <v>0.76219999999999999</v>
-    <v>1.29</v>
-    <v>7.6949999999999996E-3</v>
+    <v>0.76070000000000004</v>
+    <v>-0.02</v>
+    <v>-1.0800000000000001E-4</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Zoetis Inc. is an animal health company. The Company is focused on the discovery, development, manufacture and commercialization of medicines, vaccines, diagnostic products and services, biodevices, genetic tests and precision animal health technology. It commercializes products across eight core species: dogs, cats and horses and cattle, swine, poultry, fish and sheep and within product categories, such as vaccines, anti-infectives, parasiticides, dermatology, other pharmaceutical products, medicated feed additives and animal health diagnostics. The Company operates through two segments: the United States and International. Within each of these operating segments, it offers a product portfolio for both companion animal and livestock customers. The Company market its products in approximately 45 countries across North America, Europe, Africa, Asia, Australia and South America. The Company’s products are sold in more than 100 countries.</v>
     <v>13800</v>
@@ -2331,24 +2319,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10 Sylvan Way, PARSIPPANY, NJ, 07054 US</v>
-    <v>169.01</v>
+    <v>186.27500000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45022.958333356248</v>
+    <v>45057.958333367969</v>
     <v>0</v>
-    <v>166.37</v>
-    <v>78284550000</v>
+    <v>183.2</v>
+    <v>85546210464</v>
     <v>ZOETIS INC.</v>
     <v>ZOETIS INC.</v>
-    <v>168.27</v>
-    <v>37.5869</v>
-    <v>167.65</v>
-    <v>168.94</v>
-    <v>463386700</v>
+    <v>185.84</v>
+    <v>41.813499999999998</v>
+    <v>185.14</v>
+    <v>185.12</v>
+    <v>185.12</v>
+    <v>462112200</v>
     <v>ZTS</v>
     <v>ZOETIS INC. (XNYS:ZTS)</v>
-    <v>1594861</v>
-    <v>1932100</v>
+    <v>1539052</v>
+    <v>1734394</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2380,6 +2369,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2400,6 +2391,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2416,7 +2408,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2427,13 +2419,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2499,13 +2494,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2550,6 +2551,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2557,6 +2561,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2918,10 +2925,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q129" sqref="Q129"/>
+      <selection pane="bottomRight" activeCell="T142" sqref="T142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3147,7 +3154,7 @@
         <v>2.433262461611152E-2</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:V4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:T4" si="0">(F3/E3)-1</f>
         <v>5.1891143911439119E-2</v>
       </c>
       <c r="G4" s="15">
@@ -3448,7 +3455,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:Q9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:O9" si="1">C8/C3</f>
         <v>0.11474036850921274</v>
       </c>
       <c r="D9" s="15">
@@ -3690,7 +3697,7 @@
         <v>0.38623188405797104</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:Q13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:O13" si="2">C12/C3</f>
         <v>0.38581797878280288</v>
       </c>
       <c r="D13" s="15">
@@ -3916,15 +3923,15 @@
       </c>
       <c r="V16" s="30">
         <f>W101/O3</f>
-        <v>9.68868193069307</v>
+        <v>10.587402285148515</v>
       </c>
       <c r="W16" s="30">
         <f>W101/O28</f>
-        <v>37.031480605487225</v>
+        <v>40.466513937559128</v>
       </c>
       <c r="X16" s="31">
         <f>W101/O106</f>
-        <v>59.038122171945702</v>
+        <v>64.514487529411767</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -4093,7 +4100,7 @@
         <v>0.48892405063291133</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:Q20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:O20" si="3">(F19/E19)-1</f>
         <v>7.6514346439957581E-2</v>
       </c>
       <c r="G20" s="15">
@@ -4527,7 +4534,7 @@
         <v>0.7795918367346939</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:Q29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:O29" si="4">(F28/E28)-1</f>
         <v>0.15596330275229353</v>
       </c>
       <c r="G29" s="15">
@@ -4812,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:Q35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="5">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
@@ -6933,7 +6940,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:Q80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:O80" si="6">B79/B3</f>
         <v>5.434782608695652E-3</v>
       </c>
       <c r="C80" s="15">
@@ -7129,10 +7136,10 @@
       <c r="O83" s="1">
         <v>-486000000</v>
       </c>
-      <c r="V83" s="33" t="s">
+      <c r="V83" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="W83" s="34"/>
+      <c r="W83" s="60"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7180,10 +7187,10 @@
       <c r="O84" s="1">
         <v>-29000000</v>
       </c>
-      <c r="V84" s="35" t="s">
+      <c r="V84" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="W84" s="36"/>
+      <c r="W84" s="62"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7393,10 +7400,10 @@
       <c r="O88" s="1">
         <v>0</v>
       </c>
-      <c r="V88" s="37" t="s">
+      <c r="V88" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="W88" s="38">
+      <c r="W88" s="34">
         <f>W85/(W86+W87)</f>
         <v>3.2789317507418397E-2</v>
       </c>
@@ -7406,7 +7413,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:Q89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:O89" si="7">(-1*B88)/B3</f>
         <v>4.8913043478260872E-2</v>
       </c>
       <c r="C89" s="15">
@@ -7569,10 +7576,10 @@
       <c r="O91" s="1">
         <v>-9000000</v>
       </c>
-      <c r="V91" s="37" t="s">
+      <c r="V91" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="W91" s="38">
+      <c r="W91" s="34">
         <f>W89/W90</f>
         <v>0.20519578313253012</v>
       </c>
@@ -7623,10 +7630,10 @@
       <c r="O92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="V92" s="39" t="s">
+      <c r="V92" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="W92" s="40">
+      <c r="W92" s="36">
         <f>W88*(1-W91)</f>
         <v>2.6061087823102496E-2</v>
       </c>
@@ -7677,10 +7684,10 @@
       <c r="O93" s="1">
         <v>-562000000</v>
       </c>
-      <c r="V93" s="35" t="s">
+      <c r="V93" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="W93" s="36"/>
+      <c r="W93" s="62"/>
     </row>
     <row r="94" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7731,7 +7738,7 @@
       <c r="V94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="W94" s="41">
+      <c r="W94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7784,9 +7791,9 @@
       <c r="V95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="W95" s="42" cm="1">
+      <c r="W95" s="38" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
-        <v>0.76219999999999999</v>
+        <v>0.76070000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7838,7 +7845,7 @@
       <c r="V96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="W96" s="41">
+      <c r="W96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7888,12 +7895,12 @@
       <c r="O97" s="1">
         <v>-1594000000</v>
       </c>
-      <c r="V97" s="39" t="s">
+      <c r="V97" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="W97" s="40">
+      <c r="W97" s="36">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>7.3762710000000009E-2</v>
+        <v>7.3698134999999998E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -7942,10 +7949,10 @@
       <c r="O98" s="1">
         <v>-611000000</v>
       </c>
-      <c r="V98" s="35" t="s">
+      <c r="V98" s="61" t="s">
         <v>139</v>
       </c>
-      <c r="W98" s="36"/>
+      <c r="W98" s="62"/>
     </row>
     <row r="99" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8047,12 +8054,12 @@
       <c r="O100" s="10">
         <v>-904000000</v>
       </c>
-      <c r="V100" s="37" t="s">
+      <c r="V100" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="W100" s="38">
+      <c r="W100" s="34">
         <f>W99/W103</f>
-        <v>7.9271222252866966E-2</v>
+        <v>7.3033663058786141E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8104,9 +8111,9 @@
       <c r="V101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="W101" s="43" cm="1">
+      <c r="W101" s="39" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
-        <v>78284550000</v>
+        <v>85546210464</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8155,12 +8162,12 @@
       <c r="O102" s="10">
         <v>96000000</v>
       </c>
-      <c r="V102" s="37" t="s">
+      <c r="V102" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="W102" s="38">
+      <c r="W102" s="34">
         <f>W101/W103</f>
-        <v>0.92072877774713302</v>
+        <v>0.92696633694121389</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8209,12 +8216,12 @@
       <c r="O103" s="1">
         <v>3485000000</v>
       </c>
-      <c r="V103" s="39" t="s">
+      <c r="V103" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="W103" s="44">
+      <c r="W103" s="40">
         <f>W99+W101</f>
-        <v>85024550000</v>
+        <v>92286210464</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8263,10 +8270,10 @@
       <c r="O104" s="11">
         <v>3581000000</v>
       </c>
-      <c r="V104" s="35" t="s">
+      <c r="V104" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="W104" s="36"/>
+      <c r="W104" s="62"/>
     </row>
     <row r="105" spans="1:23" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8294,7 +8301,7 @@
         <v>-0.13279678068410461</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:Q105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:O105" si="8">(H106/G106)-1</f>
         <v>2.088167053364276E-2</v>
       </c>
       <c r="I105" s="15">
@@ -8336,7 +8343,7 @@
       </c>
       <c r="W105" s="26">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>6.9981344106592874E-2</v>
+        <v>7.021902694736698E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8385,33 +8392,33 @@
       <c r="O106" s="1">
         <v>1326000000</v>
       </c>
-      <c r="P106" s="45">
+      <c r="P106" s="41">
         <f>O106*(1+$W$106)</f>
         <v>1409921203.9655442</v>
       </c>
-      <c r="Q106" s="45">
+      <c r="Q106" s="41">
         <f t="shared" ref="Q106:T106" si="9">P106*(1+$W$106)</f>
         <v>1499153696.3737931</v>
       </c>
-      <c r="R106" s="45">
+      <c r="R106" s="41">
         <f t="shared" si="9"/>
         <v>1594033623.318804</v>
       </c>
-      <c r="S106" s="45">
+      <c r="S106" s="41">
         <f t="shared" si="9"/>
         <v>1694918405.2422373</v>
       </c>
-      <c r="T106" s="45">
+      <c r="T106" s="41">
         <f t="shared" si="9"/>
         <v>1802188083.365381</v>
       </c>
-      <c r="U106" s="46" t="s">
+      <c r="U106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="V106" s="47" t="s">
+      <c r="V106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="W106" s="48">
+      <c r="W106" s="44">
         <f>(SUM(P4:T4)/5)</f>
         <v>6.3288992432537092E-2</v>
       </c>
@@ -8432,151 +8439,151 @@
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
-      <c r="P107" s="46"/>
-      <c r="Q107" s="46"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="49">
+      <c r="P107" s="42"/>
+      <c r="Q107" s="42"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="45">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>41066864989.007004</v>
-      </c>
-      <c r="U107" s="50" t="s">
+        <v>40851006979.863304</v>
+      </c>
+      <c r="U107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="V107" s="51" t="s">
+      <c r="V107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="W107" s="52">
+      <c r="W107" s="48">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P108" s="49">
+      <c r="P108" s="45">
         <f t="shared" ref="P108:R108" si="10">P107+P106</f>
         <v>1409921203.9655442</v>
       </c>
-      <c r="Q108" s="49">
+      <c r="Q108" s="45">
         <f t="shared" si="10"/>
         <v>1499153696.3737931</v>
       </c>
-      <c r="R108" s="49">
+      <c r="R108" s="45">
         <f t="shared" si="10"/>
         <v>1594033623.318804</v>
       </c>
-      <c r="S108" s="49">
+      <c r="S108" s="45">
         <f>S107+S106</f>
         <v>1694918405.2422373</v>
       </c>
-      <c r="T108" s="49">
+      <c r="T108" s="45">
         <f>T107+T106</f>
-        <v>42869053072.372383</v>
-      </c>
-      <c r="U108" s="50" t="s">
+        <v>42653195063.228683</v>
+      </c>
+      <c r="U108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="V108" s="53" t="s">
+      <c r="V108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="W108" s="54">
+      <c r="W108" s="50">
         <f>W105</f>
-        <v>6.9981344106592874E-2</v>
+        <v>7.021902694736698E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="55" t="s">
+      <c r="P109" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="Q109" s="56"/>
+      <c r="Q109" s="64"/>
     </row>
     <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P110" s="57" t="s">
+      <c r="P110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="Q110" s="43">
+      <c r="Q110" s="39">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>35789287626.34832</v>
+        <v>35598723343.253441</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P111" s="57" t="s">
+      <c r="P111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="Q111" s="43">
+      <c r="Q111" s="39">
         <f>O40</f>
         <v>3581000000</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P112" s="57" t="s">
+      <c r="P112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Q112" s="43">
+      <c r="Q112" s="39">
         <f>W99</f>
         <v>6740000000</v>
       </c>
     </row>
     <row r="113" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P113" s="57" t="s">
+      <c r="P113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="Q113" s="43">
+      <c r="Q113" s="39">
         <f>Q110+Q111-Q112</f>
-        <v>32630287626.34832</v>
+        <v>32439723343.253441</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P114" s="57" t="s">
+      <c r="P114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="Q114" s="58">
+      <c r="Q114" s="52">
         <f>O34*(1+(5*U16))</f>
         <v>448287650.25683844</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P115" s="59" t="s">
+      <c r="P115" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="Q115" s="60">
+      <c r="Q115" s="54">
         <f>Q113/Q114</f>
-        <v>72.788727522726489</v>
+        <v>72.363633762089322</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P116" s="57" t="s">
+      <c r="P116" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="Q116" s="61" cm="1">
+      <c r="Q116" s="55" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
-        <v>168.94</v>
+        <v>185.12</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P117" s="62" t="s">
+      <c r="P117" s="56" t="s">
         <v>158</v>
       </c>
-      <c r="Q117" s="63">
+      <c r="Q117" s="57">
         <f>Q115/Q116-1</f>
-        <v>-0.56914450383138104</v>
+        <v>-0.60909878045543797</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P118" s="62" t="s">
+      <c r="P118" s="56" t="s">
         <v>159</v>
       </c>
-      <c r="Q118" s="64" t="str">
+      <c r="Q118" s="58" t="str">
         <f>IF(Q115&gt;Q116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P109:Q109"/>
     <mergeCell ref="V83:W83"/>
     <mergeCell ref="V84:W84"/>
     <mergeCell ref="V93:W93"/>
     <mergeCell ref="V98:W98"/>
     <mergeCell ref="V104:W104"/>
-    <mergeCell ref="P109:Q109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/ZTS" display="ROIC.AI | ZTS" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Healthcare/Zoetis.xlsx
+++ b/Healthcare/Zoetis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F65E62-7A40-5D41-9F29-DF48E59C4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DE212-AB07-6D4C-B8FD-B21563B38DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -712,9 +712,6 @@
     <t>Enterprise Value</t>
   </si>
   <si>
-    <t>Daily Change %</t>
-  </si>
-  <si>
     <t>Cost of Debt</t>
   </si>
   <si>
@@ -824,6 +821,15 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -993,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1239,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,248 +1453,261 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1558,16 +1737,15 @@
       <sheetName val="Software"/>
       <sheetName val="Hardware"/>
       <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Full Portfolio"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1580,14 +1758,14 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9020000000000001E-2</v>
+            <v>4.5080000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
@@ -1596,7 +1774,6 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1723,10 +1900,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>194.99</v>
-    <v>124.14830000000001</v>
-    <v>0.8085</v>
-    <v>-1.5</v>
-    <v>-8.8470000000000007E-3</v>
+    <v>136.75</v>
+    <v>0.83179999999999998</v>
+    <v>-0.24</v>
+    <v>-1.4050000000000002E-3</v>
+    <v>-0.62</v>
+    <v>-3.6340000000000001E-3</v>
     <v>USD</v>
     <v>Zoetis Inc. is an animal health company. The Company is focused on the discovery, development, manufacture and commercialization of medicines, vaccines, diagnostic products and services, biodevices, genetic tests and precision animal health technology. It commercializes products across eight core species: dogs, cats and horses and cattle, swine, poultry, fish and sheep and within product categories, such as vaccines, anti-infectives, parasiticides, dermatology, other pharmaceutical products, medicated feed additives and animal health diagnostics. The Company operates through two segments: the United States and International. Within each of these operating segments, it offers a product portfolio for both companion animal and livestock customers. The Company market its products in approximately 45 countries across North America, Europe, Africa, Asia, Australia and South America. The Company’s products are sold in more than 100 countries.</v>
     <v>13800</v>
@@ -1734,24 +1913,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10 Sylvan Way, PARSIPPANY, NJ, 07054 US</v>
-    <v>171.19</v>
+    <v>173.56</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45218.993396006248</v>
+    <v>45240.03608391172</v>
     <v>0</v>
-    <v>167.57499999999999</v>
-    <v>77351651876</v>
+    <v>170.55</v>
+    <v>78338570631</v>
     <v>ZOETIS INC.</v>
     <v>ZOETIS INC.</v>
-    <v>169.86</v>
-    <v>35.3369</v>
-    <v>169.54</v>
-    <v>168.04</v>
-    <v>460316900</v>
+    <v>170.97</v>
+    <v>34.685099999999998</v>
+    <v>170.87</v>
+    <v>170.63</v>
+    <v>170.01</v>
+    <v>459113700</v>
     <v>ZTS</v>
     <v>ZOETIS INC. (XNYS:ZTS)</v>
-    <v>1</v>
-    <v>1533190</v>
+    <v>3479316</v>
+    <v>2176767</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -1783,6 +1963,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -1803,6 +1985,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -1819,7 +2002,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1830,13 +2013,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -1902,13 +2088,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1953,6 +2145,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -1960,6 +2155,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2343,20 +2541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY199"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView topLeftCell="A170" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="A190" sqref="A190:XFD190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2415,7 +2613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>18</v>
       </c>
@@ -2556,7 +2754,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -2615,7 +2813,7 @@
         <v>2180000000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -2674,7 +2872,7 @@
         <v>607000000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -2733,7 +2931,7 @@
         <v>607000000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>22</v>
       </c>
@@ -2792,7 +2990,7 @@
         <v>1573000000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="35" t="s">
         <v>58</v>
       </c>
@@ -2851,7 +3049,7 @@
         <v>72.16</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -2910,7 +3108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -2969,7 +3167,7 @@
         <v>739000000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -3116,7 +3314,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -3263,7 +3461,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -3322,7 +3520,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>29</v>
       </c>
@@ -3381,7 +3579,7 @@
         <v>834000000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>59</v>
       </c>
@@ -3522,7 +3720,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -3581,7 +3779,7 @@
         <v>-38000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
@@ -3640,7 +3838,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -3699,7 +3897,7 @@
         <v>58000000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>33</v>
       </c>
@@ -3758,7 +3956,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>34</v>
       </c>
@@ -3817,7 +4015,7 @@
         <v>-73000000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>35</v>
       </c>
@@ -3876,7 +4074,7 @@
         <v>872000000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>36</v>
       </c>
@@ -3935,7 +4133,7 @@
         <v>202000000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
@@ -3994,7 +4192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -4053,7 +4251,7 @@
         <v>670000000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
@@ -4112,7 +4310,7 @@
         <v>-2000000</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>40</v>
       </c>
@@ -4171,7 +4369,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -4230,7 +4428,7 @@
         <v>-2000000</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>42</v>
       </c>
@@ -4289,7 +4487,7 @@
         <v>672000000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>43</v>
       </c>
@@ -4348,7 +4546,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
         <v>44</v>
       </c>
@@ -4407,7 +4605,7 @@
         <v>671000000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
         <v>60</v>
       </c>
@@ -4625,7 +4823,7 @@
         <v>5.5032553228928381E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>45</v>
       </c>
@@ -4684,7 +4882,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>46</v>
       </c>
@@ -4743,7 +4941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>47</v>
       </c>
@@ -4802,7 +5000,7 @@
         <v>671000000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>48</v>
       </c>
@@ -4861,7 +5059,7 @@
         <v>461900000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>49</v>
       </c>
@@ -4920,7 +5118,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -4979,7 +5177,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>51</v>
       </c>
@@ -5038,7 +5236,7 @@
         <v>462900000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>52</v>
       </c>
@@ -5097,7 +5295,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>53</v>
       </c>
@@ -5156,7 +5354,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>54</v>
       </c>
@@ -5215,7 +5413,7 @@
         <v>955000000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>55</v>
       </c>
@@ -5274,7 +5472,7 @@
         <v>41.96</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -5333,7 +5531,7 @@
         <v>918000000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -5392,7 +5590,7 @@
         <v>834000000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -5451,7 +5649,7 @@
         <v>157971</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>62</v>
       </c>
@@ -5510,7 +5708,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
@@ -5569,7 +5767,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>24</v>
       </c>
@@ -5628,7 +5826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -5687,7 +5885,7 @@
         <v>6183000000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>65</v>
       </c>
@@ -5746,7 +5944,7 @@
         <v>1714000000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
@@ -5805,7 +6003,7 @@
         <v>1714000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>67</v>
       </c>
@@ -5864,7 +6062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>68</v>
       </c>
@@ -5923,7 +6121,7 @@
         <v>1322000000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
@@ -5982,7 +6180,7 @@
         <v>1322000000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>70</v>
       </c>
@@ -6041,7 +6239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>71</v>
       </c>
@@ -6100,7 +6298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>72</v>
       </c>
@@ -6159,7 +6357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>73</v>
       </c>
@@ -6218,7 +6416,7 @@
         <v>2701000000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>74</v>
       </c>
@@ -6277,7 +6475,7 @@
         <v>498000000</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>75</v>
       </c>
@@ -6336,7 +6534,7 @@
         <v>1074000000</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>76</v>
       </c>
@@ -6395,7 +6593,7 @@
         <v>1129000000</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>77</v>
       </c>
@@ -6454,7 +6652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>78</v>
       </c>
@@ -6513,7 +6711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>79</v>
       </c>
@@ -6572,7 +6770,7 @@
         <v>446000000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>80</v>
       </c>
@@ -6631,7 +6829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>81</v>
       </c>
@@ -6690,7 +6888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>82</v>
       </c>
@@ -6749,7 +6947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>83</v>
       </c>
@@ -6808,7 +7006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>84</v>
       </c>
@@ -6867,7 +7065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>85</v>
       </c>
@@ -6926,7 +7124,7 @@
         <v>7566000000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>86</v>
       </c>
@@ -6985,7 +7183,7 @@
         <v>3235000000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>87</v>
       </c>
@@ -7044,7 +7242,7 @@
         <v>5682000000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>88</v>
       </c>
@@ -7103,7 +7301,7 @@
         <v>2447000000</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>89</v>
       </c>
@@ -7162,7 +7360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>90</v>
       </c>
@@ -7221,7 +7419,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>91</v>
       </c>
@@ -7280,7 +7478,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -7339,7 +7537,7 @@
         <v>4331000000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>93</v>
       </c>
@@ -7398,7 +7596,7 @@
         <v>3966000000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>94</v>
       </c>
@@ -7457,7 +7655,7 @@
         <v>2714000000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>95</v>
       </c>
@@ -7516,7 +7714,7 @@
         <v>1252000000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
@@ -7575,7 +7773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>97</v>
       </c>
@@ -7634,7 +7832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>98</v>
       </c>
@@ -7693,7 +7891,7 @@
         <v>365000000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>99</v>
       </c>
@@ -7752,7 +7950,7 @@
         <v>13749000000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>100</v>
       </c>
@@ -7811,7 +8009,7 @@
         <v>1413000000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>101</v>
       </c>
@@ -7870,7 +8068,7 @@
         <v>464000000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>102</v>
       </c>
@@ -7929,7 +8127,7 @@
         <v>87000000</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -7988,7 +8186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>104</v>
       </c>
@@ -8047,7 +8245,7 @@
         <v>862000000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>105</v>
       </c>
@@ -8106,7 +8304,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>106</v>
       </c>
@@ -8165,7 +8363,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>107</v>
       </c>
@@ -8224,7 +8422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>108</v>
       </c>
@@ -8283,7 +8481,7 @@
         <v>354000000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>109</v>
       </c>
@@ -8342,7 +8540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>110</v>
       </c>
@@ -8401,7 +8599,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>111</v>
       </c>
@@ -8460,7 +8658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>112</v>
       </c>
@@ -8519,7 +8717,7 @@
         <v>354000000</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>113</v>
       </c>
@@ -8578,7 +8776,7 @@
         <v>1769000000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>114</v>
       </c>
@@ -8637,7 +8835,7 @@
         <v>6743000000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -8696,7 +8894,7 @@
         <v>6555000000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>116</v>
       </c>
@@ -8755,7 +8953,7 @@
         <v>188000000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>117</v>
       </c>
@@ -8814,7 +9012,7 @@
         <v>616000000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>118</v>
       </c>
@@ -8873,7 +9071,7 @@
         <v>121000000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>119</v>
       </c>
@@ -8932,7 +9130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
@@ -8991,7 +9189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -9050,7 +9248,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>110</v>
       </c>
@@ -9109,7 +9307,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>120</v>
       </c>
@@ -9168,7 +9366,7 @@
         <v>495000000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>121</v>
       </c>
@@ -9227,7 +9425,7 @@
         <v>7359000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>122</v>
       </c>
@@ -9286,7 +9484,7 @@
         <v>9128000000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>123</v>
       </c>
@@ -9345,7 +9543,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>124</v>
       </c>
@@ -9404,7 +9602,7 @@
         <v>1103000000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>125</v>
       </c>
@@ -9463,7 +9661,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>126</v>
       </c>
@@ -9522,7 +9720,7 @@
         <v>1098000000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>127</v>
       </c>
@@ -9581,7 +9779,7 @@
         <v>5126000000</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>128</v>
       </c>
@@ -9640,7 +9838,7 @@
         <v>9543000000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>129</v>
       </c>
@@ -9699,7 +9897,7 @@
         <v>-895000000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>130</v>
       </c>
@@ -9758,7 +9956,7 @@
         <v>4625000000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>131</v>
       </c>
@@ -9817,7 +10015,7 @@
         <v>-4000000</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>132</v>
       </c>
@@ -9876,7 +10074,7 @@
         <v>4621000000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>133</v>
       </c>
@@ -9935,7 +10133,7 @@
         <v>13749000000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>134</v>
       </c>
@@ -10076,7 +10274,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>135</v>
       </c>
@@ -10135,7 +10333,7 @@
         <v>188000000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>136</v>
       </c>
@@ -10194,7 +10392,7 @@
         <v>4843000000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>137</v>
       </c>
@@ -10253,7 +10451,7 @@
         <v>104.8</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>138</v>
       </c>
@@ -10312,7 +10510,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>139</v>
       </c>
@@ -10371,7 +10569,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>140</v>
       </c>
@@ -10430,7 +10628,7 @@
         <v>367.41</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>141</v>
       </c>
@@ -10489,7 +10687,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>24</v>
       </c>
@@ -10548,7 +10746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>142</v>
       </c>
@@ -10607,7 +10805,7 @@
         <v>670000000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>143</v>
       </c>
@@ -10666,7 +10864,7 @@
         <v>121000000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>144</v>
       </c>
@@ -10725,7 +10923,7 @@
         <v>-97000000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>145</v>
       </c>
@@ -10872,7 +11070,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>146</v>
       </c>
@@ -10931,7 +11129,7 @@
         <v>-34000000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>147</v>
       </c>
@@ -10990,7 +11188,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>148</v>
       </c>
@@ -11049,7 +11247,7 @@
         <v>-92000000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>149</v>
       </c>
@@ -11108,7 +11306,7 @@
         <v>-511000000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>150</v>
       </c>
@@ -11167,7 +11365,7 @@
         <v>-143000000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>151</v>
       </c>
@@ -11226,7 +11424,7 @@
         <v>-189000000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>152</v>
       </c>
@@ -11285,7 +11483,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>153</v>
       </c>
@@ -11344,7 +11542,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>154</v>
       </c>
@@ -11403,7 +11601,7 @@
         <v>-222000000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>155</v>
       </c>
@@ -11462,7 +11660,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>156</v>
       </c>
@@ -11521,7 +11719,7 @@
         <v>183000000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>157</v>
       </c>
@@ -11580,7 +11778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>158</v>
       </c>
@@ -11639,7 +11837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>159</v>
       </c>
@@ -11698,7 +11896,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>160</v>
       </c>
@@ -11757,7 +11955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>161</v>
       </c>
@@ -11816,7 +12014,7 @@
         <v>-166000000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>162</v>
       </c>
@@ -11875,7 +12073,7 @@
         <v>-166000000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>163</v>
       </c>
@@ -11934,7 +12132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>164</v>
       </c>
@@ -11993,7 +12191,7 @@
         <v>-11000000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>165</v>
       </c>
@@ -12052,7 +12250,7 @@
         <v>-10000000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>166</v>
       </c>
@@ -12111,7 +12309,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>167</v>
       </c>
@@ -12170,7 +12368,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>168</v>
       </c>
@@ -12229,7 +12427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>169</v>
       </c>
@@ -12288,7 +12486,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>170</v>
       </c>
@@ -12347,7 +12545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>171</v>
       </c>
@@ -12406,7 +12604,7 @@
         <v>97000000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>155</v>
       </c>
@@ -12465,7 +12663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
@@ -12524,7 +12722,7 @@
         <v>-80000000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
@@ -12583,7 +12781,7 @@
         <v>-173000000</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
@@ -12642,7 +12840,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
@@ -12701,7 +12899,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
@@ -12760,7 +12958,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>177</v>
       </c>
@@ -12819,7 +13017,7 @@
         <v>-324000000</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
@@ -12878,7 +13076,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>179</v>
       </c>
@@ -12937,7 +13135,7 @@
         <v>-324000000</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
@@ -12996,7 +13194,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>155</v>
       </c>
@@ -13055,7 +13253,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>181</v>
       </c>
@@ -13114,7 +13312,7 @@
         <v>-494000000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>182</v>
       </c>
@@ -13173,7 +13371,7 @@
         <v>-1000000</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>183</v>
       </c>
@@ -13232,7 +13430,7 @@
         <v>-391000000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>54</v>
       </c>
@@ -13291,7 +13489,7 @@
         <v>955000000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>55</v>
       </c>
@@ -13350,7 +13548,7 @@
         <v>41.96</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>184</v>
       </c>
@@ -13409,7 +13607,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>185</v>
       </c>
@@ -13468,7 +13666,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="32" t="s">
         <v>186</v>
       </c>
@@ -15409,7 +15607,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="3"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>187</v>
       </c>
@@ -15468,7 +15666,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>188</v>
       </c>
@@ -15527,7 +15725,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>189</v>
       </c>
@@ -15586,7 +15784,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>190</v>
       </c>
@@ -15645,12 +15843,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="8"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15664,7 +15859,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15672,1727 +15867,1789 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="117" t="e" vm="1">
+    <row r="1" spans="1:16" s="123" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" s="118" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+    </row>
+    <row r="2" spans="1:16" s="123" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" cm="1">
+      <c r="A3" s="73" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>77351651876</v>
-      </c>
-      <c r="B3" s="39" t="s">
+        <v>78338570631</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="75">
         <f>Financials!O8*0.01</f>
         <v>0.70140000000000002</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="74" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="75">
         <f>SUM(C11:E11)/3</f>
         <v>9.0110800047646863E-2</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="76" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="77">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-8.2941157610064709E-3</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="43">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>69085531826.440033</v>
-      </c>
-      <c r="J3" s="39" t="s">
+      <c r="I3" s="78">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>68819422183.490265</v>
+      </c>
+      <c r="J3" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47" t="s">
+      <c r="K3" s="80">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>8.3100826930634277E-3</v>
+      </c>
+      <c r="L3" s="81" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="38"/>
+      <c r="N3" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="46"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49">
+      <c r="A4" s="82">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-5031000000</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.36180000000000001</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>0.12446347695832238</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="84" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="53">
+      <c r="G4" s="85">
         <f>A5*(1+(5*G3))</f>
-        <v>441227291.72326177</v>
-      </c>
-      <c r="H4" s="54" t="s">
+        <v>440073989.12368</v>
+      </c>
+      <c r="H4" s="84" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="55">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>59413209788.264511</v>
-      </c>
-      <c r="J4" s="52" t="s">
+      <c r="I4" s="39">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>59178546700.060684</v>
+      </c>
+      <c r="J4" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="42" cm="1">
+      <c r="K4" s="86" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-8.8470000000000007E-3</v>
-      </c>
-      <c r="L4" s="41" t="s">
+        <v>-1.4050000000000002E-3</v>
+      </c>
+      <c r="L4" s="87" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="38"/>
+      <c r="N4" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="56" t="s">
+      <c r="O4" s="106"/>
+      <c r="P4" s="38"/>
+    </row>
+    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" cm="1">
+        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
+        <v>459113700</v>
+      </c>
+      <c r="B5" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="46"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" cm="1">
-        <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>460316900</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="58">
+      <c r="C5" s="40">
         <f>Financials!O34*0.01</f>
         <v>0.26920000000000005</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="88" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="40">
+        <f>SUM(C16:E16)/3</f>
+        <v>1.2531067084484667E-2</v>
+      </c>
+      <c r="F5" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="51">
-        <f>SUM(C15:E15)/3</f>
-        <v>1.2531067084484667E-2</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="53">
+      <c r="G5" s="85">
         <f>Financials!O56</f>
         <v>1714000000</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="39">
+        <f>I4+G5-G6</f>
+        <v>54147546700.060684</v>
+      </c>
+      <c r="J5" s="84" t="s">
         <v>217</v>
       </c>
-      <c r="I5" s="55">
-        <f>I4+G5-G6</f>
-        <v>54382209788.264511</v>
-      </c>
-      <c r="J5" s="52" t="s">
+      <c r="K5" s="89" cm="1">
+        <f t="array" ref="K5">_FV(A1,"Price")</f>
+        <v>170.63</v>
+      </c>
+      <c r="L5" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="K5" s="59" cm="1">
-        <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>168.04</v>
-      </c>
-      <c r="L5" s="50" t="s">
+      <c r="M5" s="38"/>
+      <c r="N5" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="M5" s="46"/>
-      <c r="N5" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="O5" s="61">
+      <c r="O5" s="108">
         <f>Financials!O21</f>
         <v>236000000</v>
       </c>
-      <c r="P5" s="46"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62">
+      <c r="A6" s="91">
         <f>O20/F10</f>
-        <v>8.9943781251162793</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="C6" s="51">
+        <v>9.1091361198837202</v>
+      </c>
+      <c r="B6" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="40">
         <f>Financials!O190</f>
         <v>0.17870879421065433</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>0.47890067085046528</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="G6" s="55">
+      <c r="F6" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="85">
         <f>Financials!O96+Financials!O105</f>
         <v>6745000000</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="86">
+        <f>N25</f>
+        <v>7.3480136771627735E-2</v>
+      </c>
+      <c r="J6" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="I6" s="64">
-        <f>N25</f>
-        <v>7.3293396776358322E-2</v>
-      </c>
-      <c r="J6" s="54" t="s">
+      <c r="K6" s="41">
+        <f>I5/G4</f>
+        <v>123.04191576485758</v>
+      </c>
+      <c r="L6" s="92" t="s">
         <v>224</v>
       </c>
-      <c r="K6" s="65">
-        <f>I5/G4</f>
-        <v>123.25214420864313</v>
-      </c>
-      <c r="L6" s="66" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="M6" s="46"/>
-      <c r="N6" s="67" t="s">
-        <v>226</v>
-      </c>
-      <c r="O6" s="68">
+      <c r="O6" s="108">
         <f>Financials!O96</f>
         <v>2000000</v>
       </c>
-      <c r="P6" s="46"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="69">
+      <c r="P6" s="38"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93">
         <f>O20/F12</f>
-        <v>30.829673924272619</v>
-      </c>
-      <c r="B7" s="70" t="s">
+        <v>31.223025361100039</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="95">
+        <f>F15/O21</f>
+        <v>2.5175248101536155E-2</v>
+      </c>
+      <c r="D7" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="71">
-        <f>F14/O21</f>
-        <v>2.547069297310868E-2</v>
-      </c>
-      <c r="D7" s="72" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="73">
+      <c r="E7" s="96">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19630916769311982</v>
       </c>
-      <c r="F7" s="70" t="s">
+      <c r="F7" s="94" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="97">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.4596407703960181</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" s="99">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J7" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="I7" s="76">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J7" s="77" t="s">
+      <c r="K7" s="101">
+        <f>K6/K5-1</f>
+        <v>-0.2788963502030265</v>
+      </c>
+      <c r="L7" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="120">
-        <f>K6/K5-1</f>
-        <v>-0.26653091996760814</v>
-      </c>
-      <c r="L7" s="78" t="s">
+      <c r="M7" s="38"/>
+      <c r="N7" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="67" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="68">
+      <c r="O7" s="108">
         <f>Financials!O105</f>
         <v>6743000000</v>
       </c>
-      <c r="P7" s="46"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="80" t="s">
-        <v>213</v>
-      </c>
-      <c r="O8" s="81">
+      <c r="A8" s="42"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="109" t="s">
+        <v>212</v>
+      </c>
+      <c r="O8" s="110">
         <f>O5/(O6+O7)</f>
         <v>3.4988880652335061E-2</v>
       </c>
-      <c r="P8" s="46"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54">
         <v>2019</v>
       </c>
-      <c r="C9" s="83">
+      <c r="C9" s="54">
         <v>2020</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="54">
         <v>2021</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="55">
         <v>2022</v>
       </c>
-      <c r="F9" s="84">
+      <c r="F9" s="56">
         <v>2023</v>
       </c>
-      <c r="G9" s="85">
+      <c r="G9" s="57">
         <v>2024</v>
       </c>
-      <c r="H9" s="85">
+      <c r="H9" s="57">
         <v>2025</v>
       </c>
-      <c r="I9" s="85">
+      <c r="I9" s="57">
         <v>2026</v>
       </c>
-      <c r="J9" s="85">
+      <c r="J9" s="58">
         <v>2027</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="67" t="s">
-        <v>233</v>
-      </c>
-      <c r="O9" s="68">
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="O9" s="108">
         <f>Financials!O25</f>
         <v>619000000</v>
       </c>
-      <c r="P9" s="46"/>
+      <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" s="60">
+        <v>6260000000</v>
+      </c>
+      <c r="C10" s="60">
+        <v>6675000000</v>
+      </c>
+      <c r="D10" s="60">
+        <v>7776000000</v>
+      </c>
+      <c r="E10" s="61">
+        <v>8080000000</v>
+      </c>
+      <c r="F10" s="60">
+        <v>8600000000</v>
+      </c>
+      <c r="G10" s="60">
+        <v>9228000000</v>
+      </c>
+      <c r="H10" s="60">
+        <v>9882000000</v>
+      </c>
+      <c r="I10" s="60">
+        <v>10295000000</v>
+      </c>
+      <c r="J10" s="61">
+        <v>10812000000</v>
+      </c>
+      <c r="K10" s="62" t="s">
         <v>234</v>
       </c>
-      <c r="B10" s="89">
-        <v>6260000000</v>
-      </c>
-      <c r="C10" s="89">
-        <v>6675000000</v>
-      </c>
-      <c r="D10" s="89">
-        <v>7776000000</v>
-      </c>
-      <c r="E10" s="89">
-        <v>8080000000</v>
-      </c>
-      <c r="F10" s="90">
-        <v>8600000000</v>
-      </c>
-      <c r="G10" s="89">
-        <v>9228000000</v>
-      </c>
-      <c r="H10" s="89">
-        <v>9882000000</v>
-      </c>
-      <c r="I10" s="89">
-        <v>10295000000</v>
-      </c>
-      <c r="J10" s="89">
-        <v>10812000000</v>
-      </c>
-      <c r="K10" s="91" t="s">
+      <c r="N10" s="107" t="s">
         <v>235</v>
       </c>
-      <c r="N10" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="O10" s="68">
+      <c r="O10" s="108">
         <f>Financials!O24</f>
         <v>2828000000</v>
       </c>
-      <c r="P10" s="46"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93">
+      <c r="A11" s="63"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>6.6293929712460065E-2</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="44">
         <f t="shared" si="0"/>
         <v>0.1649438202247191</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="44">
         <f t="shared" si="0"/>
         <v>3.9094650205761416E-2</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>6.4356435643564414E-2</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="44">
         <f t="shared" si="0"/>
         <v>7.3023255813953414E-2</v>
       </c>
-      <c r="H11" s="93">
+      <c r="H11" s="44">
         <f t="shared" si="0"/>
         <v>7.0871261378413486E-2</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="44">
         <f t="shared" si="0"/>
         <v>4.1793159279498004E-2</v>
       </c>
-      <c r="J11" s="93">
+      <c r="J11" s="64">
         <f t="shared" si="0"/>
         <v>5.0218552695483254E-2</v>
       </c>
-      <c r="K11" s="95">
+      <c r="K11" s="64">
         <f>SUM(F11:J11)/5</f>
         <v>6.0052532962182513E-2</v>
       </c>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="67" t="s">
-        <v>237</v>
-      </c>
-      <c r="O11" s="96">
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="107" t="s">
+        <v>236</v>
+      </c>
+      <c r="O11" s="111">
         <f>O9/O10</f>
         <v>0.21888260254596889</v>
       </c>
-      <c r="P11" s="46"/>
+      <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="60">
         <v>1500000000</v>
       </c>
-      <c r="C12" s="89">
+      <c r="C12" s="60">
         <v>1638000000</v>
       </c>
-      <c r="D12" s="89">
+      <c r="D12" s="60">
         <v>2037000000</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="60">
         <v>2114000000</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="65">
         <v>2509000000</v>
       </c>
-      <c r="G12" s="89">
+      <c r="G12" s="60">
         <v>2768000000</v>
       </c>
-      <c r="H12" s="89">
+      <c r="H12" s="60">
         <v>3066000000</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="60">
         <v>3286000000</v>
       </c>
-      <c r="J12" s="89">
+      <c r="J12" s="61">
         <v>3593000000</v>
       </c>
-      <c r="K12" s="91" t="s">
+      <c r="K12" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="O12" s="98">
+      <c r="O12" s="111">
         <f>O8*(1-O11)</f>
         <v>2.7330423394981665E-2</v>
       </c>
-      <c r="P12" s="46"/>
+      <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="92"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93">
+      <c r="A13" s="63"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>9.2000000000000082E-2</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="44">
         <f t="shared" si="1"/>
         <v>0.24358974358974361</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="44">
         <f t="shared" si="1"/>
         <v>3.7800687285223455E-2</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="45">
         <f t="shared" si="1"/>
         <v>0.18684957426679283</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="44">
         <f t="shared" si="1"/>
         <v>0.1032283778397769</v>
       </c>
-      <c r="H13" s="93">
+      <c r="H13" s="44">
         <f t="shared" si="1"/>
         <v>0.10765895953757232</v>
       </c>
-      <c r="I13" s="93">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>7.1754729288975971E-2</v>
       </c>
-      <c r="J13" s="93">
+      <c r="J13" s="64">
         <f t="shared" si="1"/>
         <v>9.3426658551430286E-2</v>
       </c>
-      <c r="K13" s="95">
+      <c r="K13" s="64">
         <f>SUM(F13:J13)/5</f>
         <v>0.11258365989690966</v>
       </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="56" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="105" t="s">
+        <v>239</v>
+      </c>
+      <c r="O13" s="106"/>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="50">
+        <f>B12/B10</f>
+        <v>0.23961661341853036</v>
+      </c>
+      <c r="C14" s="50">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>0.2453932584269663</v>
+      </c>
+      <c r="D14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.2619598765432099</v>
+      </c>
+      <c r="E14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.26163366336633664</v>
+      </c>
+      <c r="F14" s="51">
+        <f t="shared" si="2"/>
+        <v>0.29174418604651164</v>
+      </c>
+      <c r="G14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.29995665366276547</v>
+      </c>
+      <c r="H14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.31026108075288406</v>
+      </c>
+      <c r="I14" s="50">
+        <f t="shared" si="2"/>
+        <v>0.31918406993686255</v>
+      </c>
+      <c r="J14" s="52">
+        <f t="shared" si="2"/>
+        <v>0.33231594524602293</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="107" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="111">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.5080000000000002E-2</v>
+      </c>
+      <c r="P14" s="38"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="60">
+        <v>1520730150</v>
+      </c>
+      <c r="C15" s="60">
+        <v>1862336673</v>
+      </c>
+      <c r="D15" s="60">
+        <v>1919125402</v>
+      </c>
+      <c r="E15" s="60">
+        <v>1501651732</v>
+      </c>
+      <c r="F15" s="65">
+        <v>2142000000</v>
+      </c>
+      <c r="G15" s="60">
+        <v>2488000000</v>
+      </c>
+      <c r="H15" s="60">
+        <v>2714000000</v>
+      </c>
+      <c r="I15" s="60">
+        <v>3014000000</v>
+      </c>
+      <c r="J15" s="61">
+        <v>3255000000</v>
+      </c>
+      <c r="K15" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="57"/>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="88" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="89">
-        <v>1520730150</v>
-      </c>
-      <c r="C14" s="89">
-        <v>1862336673</v>
-      </c>
-      <c r="D14" s="89">
-        <v>1919125402</v>
-      </c>
-      <c r="E14" s="89">
-        <v>1501651732</v>
-      </c>
-      <c r="F14" s="90">
-        <v>2142000000</v>
-      </c>
-      <c r="G14" s="89">
-        <v>2488000000</v>
-      </c>
-      <c r="H14" s="89">
-        <v>2714000000</v>
-      </c>
-      <c r="I14" s="89">
-        <v>3014000000</v>
-      </c>
-      <c r="J14" s="89">
-        <v>3255000000</v>
-      </c>
-      <c r="K14" s="91" t="s">
-        <v>241</v>
-      </c>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="67" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="O14" s="96">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9020000000000001E-2</v>
-      </c>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="99"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="O15" s="112" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="P15" s="38"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="67"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>0.22463322832127708</v>
       </c>
-      <c r="D15" s="93">
-        <f t="shared" si="2"/>
+      <c r="D16" s="44">
+        <f t="shared" si="3"/>
         <v>3.0493266777870121E-2</v>
       </c>
-      <c r="E15" s="93">
-        <f t="shared" si="2"/>
+      <c r="E16" s="44">
+        <f t="shared" si="3"/>
         <v>-0.2175332938456932</v>
       </c>
-      <c r="F15" s="94">
-        <f t="shared" si="2"/>
+      <c r="F16" s="45">
+        <f t="shared" si="3"/>
         <v>0.4264292807408423</v>
       </c>
-      <c r="G15" s="93">
-        <f t="shared" si="2"/>
+      <c r="G16" s="44">
+        <f t="shared" si="3"/>
         <v>0.16153127917833809</v>
       </c>
-      <c r="H15" s="93">
-        <f t="shared" si="2"/>
+      <c r="H16" s="44">
+        <f t="shared" si="3"/>
         <v>9.0836012861736259E-2</v>
       </c>
-      <c r="I15" s="93">
-        <f t="shared" si="2"/>
+      <c r="I16" s="44">
+        <f t="shared" si="3"/>
         <v>0.11053795136330136</v>
       </c>
-      <c r="J15" s="93">
-        <f t="shared" si="2"/>
+      <c r="J16" s="64">
+        <f t="shared" si="3"/>
         <v>7.9960185799601957E-2</v>
       </c>
-      <c r="K15" s="95">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="64">
+        <f>SUM(F16:J16)/5</f>
         <v>0.173858941988764</v>
       </c>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="67" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="107" t="s">
         <v>243</v>
       </c>
-      <c r="O15" s="100" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.8085</v>
-      </c>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="O16" s="111">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="50">
+        <f>B15/B10</f>
+        <v>0.24292813897763579</v>
+      </c>
+      <c r="C17" s="50">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>0.27900174876404493</v>
+      </c>
+      <c r="D17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.24680110622427984</v>
+      </c>
+      <c r="E17" s="52">
+        <f t="shared" si="4"/>
+        <v>0.18584798663366336</v>
+      </c>
+      <c r="F17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.24906976744186046</v>
+      </c>
+      <c r="G17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.26961421759861293</v>
+      </c>
+      <c r="H17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.27464076097955881</v>
+      </c>
+      <c r="I17" s="50">
+        <f t="shared" si="4"/>
+        <v>0.29276347741622144</v>
+      </c>
+      <c r="J17" s="52">
+        <f t="shared" si="4"/>
+        <v>0.30105438401775803</v>
+      </c>
+      <c r="K17" s="52"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="113" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="114">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>7.745365600000001E-2</v>
+      </c>
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="101">
+      <c r="B18" s="69">
         <v>0.16241012984225775</v>
       </c>
-      <c r="C16" s="101">
+      <c r="C18" s="69">
         <v>0.15282891782667266</v>
       </c>
-      <c r="D16" s="101">
+      <c r="D18" s="69">
         <v>0.1862540976344467</v>
       </c>
-      <c r="E16" s="101">
+      <c r="E18" s="69">
         <v>0.17577843592411752</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="104"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="67" t="s">
+      <c r="F18" s="70"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="105" t="s">
         <v>244</v>
       </c>
-      <c r="O16" s="96">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="106" t="s">
-        <v>240</v>
-      </c>
-      <c r="O17" s="107">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.7301330000000001E-2</v>
-      </c>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="56" t="s">
-        <v>245</v>
-      </c>
-      <c r="O18" s="57"/>
-      <c r="P18" s="46"/>
+      <c r="O18" s="106"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="110" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="119" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>2012</v>
-      </c>
-      <c r="D19" s="119"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="O19" s="109">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="107" t="s">
+        <v>222</v>
+      </c>
+      <c r="O19" s="115">
         <f>O6+O7</f>
         <v>6745000000</v>
       </c>
-      <c r="P19" s="46"/>
+      <c r="P19" s="38"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="110" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="107" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="115" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>78338570631</v>
+      </c>
+      <c r="P20" s="38"/>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="47" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48" cm="1">
+        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>2012</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="107" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="115">
+        <f>O19+O20</f>
+        <v>85083570631</v>
+      </c>
+      <c r="P21" s="38"/>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="47" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Zoetis Inc. is an animal health company. The Company is focused on the discovery, development, manufacture and commercialization of medicines, vaccines, diagnostic products and services, biodevices, genetic tests and precision animal health technology. It commercializes products across eight core species: dogs, cats and horses and cattle, swine, poultry, fish and sheep and within product categories, such as vaccines, anti-infectives, parasiticides, dermatology, other pharmaceutical products, medicated feed additives and animal health diagnostics. The Company operates through two segments: the United States and International. Within each of these operating segments, it offers a product portfolio for both companion animal and livestock customers. The Company market its products in approximately 45 countries across North America, Europe, Africa, Asia, Australia and South America. The Company’s products are sold in more than 100 countries.</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="67" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="109" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>77351651876</v>
-      </c>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="67" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="109" t="s">
         <v>246</v>
       </c>
-      <c r="O21" s="109">
-        <f>O19+O20</f>
-        <v>84096651876</v>
-      </c>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="110"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="80" t="s">
+      <c r="O22" s="116">
+        <f>(O19/O21)</f>
+        <v>7.9274999273978228E-2</v>
+      </c>
+      <c r="P22" s="38"/>
+    </row>
+    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="113" t="s">
         <v>247</v>
       </c>
-      <c r="O22" s="111">
-        <f>(O19/O21)</f>
-        <v>8.0205333381707766E-2</v>
-      </c>
-      <c r="P22" s="46"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="110"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="106" t="s">
+      <c r="O23" s="117">
+        <f>O20/O21</f>
+        <v>0.92072500072602181</v>
+      </c>
+      <c r="P23" s="38"/>
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="O23" s="112">
-        <f>O20/O21</f>
-        <v>0.91979466661829223</v>
-      </c>
-      <c r="P23" s="46"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="110"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="113" t="s">
-        <v>249</v>
-      </c>
-      <c r="O24" s="114"/>
-      <c r="P24" s="46"/>
+      <c r="O24" s="119"/>
+      <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="110"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="110"/>
-      <c r="D25" s="110"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="115">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="120">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.3293396776358322E-2</v>
-      </c>
-      <c r="O25" s="116"/>
-      <c r="P25" s="46"/>
+        <v>7.3480136771627735E-2</v>
+      </c>
+      <c r="O25" s="121"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="87"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
-      <c r="O34" s="87"/>
-      <c r="P34" s="87"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="87"/>
-      <c r="P36" s="87"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="87"/>
-      <c r="O37" s="87"/>
-      <c r="P37" s="87"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87"/>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
-      <c r="J38" s="87"/>
-      <c r="K38" s="87"/>
-      <c r="L38" s="87"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="87"/>
-      <c r="O38" s="87"/>
-      <c r="P38" s="87"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="87"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
-      <c r="L40" s="87"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="87"/>
-      <c r="O40" s="87"/>
-      <c r="P40" s="87"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="87"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="87"/>
-      <c r="O41" s="87"/>
-      <c r="P41" s="87"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="87"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="87"/>
-      <c r="O42" s="87"/>
-      <c r="P42" s="87"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="87"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="87"/>
-      <c r="O44" s="87"/>
-      <c r="P44" s="87"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="87"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="87"/>
-      <c r="O46" s="87"/>
-      <c r="P46" s="87"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
-      <c r="L47" s="87"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="87"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
-      <c r="L48" s="87"/>
-      <c r="M48" s="87"/>
-      <c r="N48" s="87"/>
-      <c r="O48" s="87"/>
-      <c r="P48" s="87"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="87"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="87"/>
-      <c r="M49" s="87"/>
-      <c r="N49" s="87"/>
-      <c r="O49" s="87"/>
-      <c r="P49" s="87"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="87"/>
-      <c r="M50" s="87"/>
-      <c r="N50" s="87"/>
-      <c r="O50" s="87"/>
-      <c r="P50" s="87"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-      <c r="O51" s="87"/>
-      <c r="P51" s="87"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="43"/>
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="43"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="43"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="43"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="43"/>
+      <c r="K53" s="43"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
+      <c r="N53" s="43"/>
+      <c r="O53" s="43"/>
+      <c r="P53" s="43"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="87"/>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="H54" s="87"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="87"/>
-      <c r="L54" s="87"/>
-      <c r="M54" s="87"/>
-      <c r="N54" s="87"/>
-      <c r="O54" s="87"/>
-      <c r="P54" s="87"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43"/>
+      <c r="M54" s="43"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="43"/>
+      <c r="P54" s="43"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="87"/>
-      <c r="L55" s="87"/>
-      <c r="M55" s="87"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
+      <c r="N55" s="43"/>
+      <c r="O55" s="43"/>
+      <c r="P55" s="43"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="87"/>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="87"/>
-      <c r="O56" s="87"/>
-      <c r="P56" s="87"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="43"/>
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="87"/>
-      <c r="L57" s="87"/>
-      <c r="M57" s="87"/>
-      <c r="N57" s="87"/>
-      <c r="O57" s="87"/>
-      <c r="P57" s="87"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
+      <c r="N57" s="43"/>
+      <c r="O57" s="43"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="43"/>
+      <c r="N58" s="43"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="87"/>
-      <c r="O59" s="87"/>
-      <c r="P59" s="87"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
+      <c r="N59" s="43"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
+      <c r="N60" s="43"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="87"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="87"/>
-      <c r="L61" s="87"/>
-      <c r="M61" s="87"/>
-      <c r="N61" s="87"/>
-      <c r="O61" s="87"/>
-      <c r="P61" s="87"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
+      <c r="N61" s="43"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="46"/>
-      <c r="P62" s="46"/>
+      <c r="O62" s="38"/>
+      <c r="P62" s="38"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
+      <c r="O63" s="38"/>
+      <c r="P63" s="38"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="46"/>
-      <c r="P64" s="46"/>
+      <c r="O64" s="38"/>
+      <c r="P64" s="38"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="46"/>
-      <c r="P65" s="46"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="46"/>
-      <c r="P66" s="46"/>
+      <c r="O66" s="38"/>
+      <c r="P66" s="38"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="46"/>
-      <c r="P67" s="46"/>
+      <c r="O67" s="38"/>
+      <c r="P67" s="38"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="46"/>
-      <c r="P68" s="46"/>
+      <c r="O68" s="38"/>
+      <c r="P68" s="38"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="46"/>
-      <c r="P69" s="46"/>
+      <c r="O69" s="38"/>
+      <c r="P69" s="38"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="46"/>
-      <c r="P70" s="46"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="46"/>
-      <c r="P71" s="46"/>
+      <c r="O71" s="38"/>
+      <c r="P71" s="38"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="46"/>
-      <c r="P73" s="46"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="46"/>
-      <c r="P74" s="46"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="38"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="38"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
+      <c r="O77" s="38"/>
+      <c r="P77" s="38"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
+      <c r="O78" s="38"/>
+      <c r="P78" s="38"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="46"/>
-      <c r="P79" s="46"/>
+      <c r="O79" s="38"/>
+      <c r="P79" s="38"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="46"/>
-      <c r="P80" s="46"/>
+      <c r="O80" s="38"/>
+      <c r="P80" s="38"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="46"/>
-      <c r="P81" s="46"/>
+      <c r="O81" s="38"/>
+      <c r="P81" s="38"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="46"/>
-      <c r="P82" s="46"/>
+      <c r="O82" s="38"/>
+      <c r="P82" s="38"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="46"/>
-      <c r="P83" s="46"/>
+      <c r="O83" s="38"/>
+      <c r="P83" s="38"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="46"/>
-      <c r="P84" s="46"/>
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
+      <c r="O85" s="38"/>
+      <c r="P85" s="38"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="46"/>
-      <c r="P86" s="46"/>
+      <c r="O86" s="38"/>
+      <c r="P86" s="38"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="46"/>
-      <c r="P87" s="46"/>
+      <c r="O87" s="38"/>
+      <c r="P87" s="38"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
+      <c r="O88" s="38"/>
+      <c r="P88" s="38"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="46"/>
-      <c r="P89" s="46"/>
+      <c r="O89" s="38"/>
+      <c r="P89" s="38"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
+      <c r="O90" s="38"/>
+      <c r="P90" s="38"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="46"/>
-      <c r="P91" s="46"/>
+      <c r="O91" s="38"/>
+      <c r="P91" s="38"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="46"/>
-      <c r="P92" s="46"/>
+      <c r="O92" s="38"/>
+      <c r="P92" s="38"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="46"/>
-      <c r="P93" s="46"/>
+      <c r="O93" s="38"/>
+      <c r="P93" s="38"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="46"/>
-      <c r="P94" s="46"/>
+      <c r="O94" s="38"/>
+      <c r="P94" s="38"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="46"/>
-      <c r="P95" s="46"/>
+      <c r="O95" s="38"/>
+      <c r="P95" s="38"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="46"/>
-      <c r="P96" s="46"/>
+      <c r="O96" s="38"/>
+      <c r="P96" s="38"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="46"/>
-      <c r="P97" s="46"/>
+      <c r="O97" s="38"/>
+      <c r="P97" s="38"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
+      <c r="O98" s="38"/>
+      <c r="P98" s="38"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
+      <c r="O99" s="38"/>
+      <c r="P99" s="38"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
+      <c r="O100" s="38"/>
+      <c r="P100" s="38"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
+      <c r="O101" s="38"/>
+      <c r="P101" s="38"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="46"/>
-      <c r="P102" s="46"/>
+      <c r="O102" s="38"/>
+      <c r="P102" s="38"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="46"/>
-      <c r="P104" s="46"/>
+      <c r="O104" s="38"/>
+      <c r="P104" s="38"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="46"/>
-      <c r="P105" s="46"/>
+      <c r="O105" s="38"/>
+      <c r="P105" s="38"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="46"/>
-      <c r="P106" s="46"/>
+      <c r="O106" s="38"/>
+      <c r="P106" s="38"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="46"/>
-      <c r="P107" s="46"/>
+      <c r="O107" s="38"/>
+      <c r="P107" s="38"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="46"/>
-      <c r="P108" s="46"/>
+      <c r="O108" s="38"/>
+      <c r="P108" s="38"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="46"/>
-      <c r="P109" s="46"/>
+      <c r="O109" s="38"/>
+      <c r="P109" s="38"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="46"/>
-      <c r="P110" s="46"/>
+      <c r="O110" s="38"/>
+      <c r="P110" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E25"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17400,8 +17657,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:ZTS/explorer/revenue_proj" xr:uid="{AAECD28E-B786-6D47-9FB3-FAC4F9EBAC48}"/>

--- a/Healthcare/Zoetis.xlsx
+++ b/Healthcare/Zoetis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2DE212-AB07-6D4C-B8FD-B21563B38DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA394A-B90C-1B4B-9D01-975CF06281FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1478,12 +1478,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1646,18 +1640,6 @@
     <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1708,6 +1690,24 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1762,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.3360000000000003E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1900,12 +1900,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>194.99</v>
-    <v>136.75</v>
-    <v>0.83179999999999998</v>
-    <v>-0.24</v>
-    <v>-1.4050000000000002E-3</v>
-    <v>-0.62</v>
-    <v>-3.6340000000000001E-3</v>
+    <v>140.76</v>
+    <v>0.84450000000000003</v>
+    <v>-1.18</v>
+    <v>-6.6679999999999994E-3</v>
+    <v>0.27</v>
+    <v>1.5359999999999998E-3</v>
     <v>USD</v>
     <v>Zoetis Inc. is an animal health company. The Company is focused on the discovery, development, manufacture and commercialization of medicines, vaccines, diagnostic products and services, biodevices, genetic tests and precision animal health technology. It commercializes products across eight core species: dogs, cats and horses and cattle, swine, poultry, fish and sheep and within product categories, such as vaccines, anti-infectives, parasiticides, dermatology, other pharmaceutical products, medicated feed additives and animal health diagnostics. The Company operates through two segments: the United States and International. Within each of these operating segments, it offers a product portfolio for both companion animal and livestock customers. The Company market its products in approximately 45 countries across North America, Europe, Africa, Asia, Australia and South America. The Company’s products are sold in more than 100 countries.</v>
     <v>13800</v>
@@ -1913,25 +1913,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10 Sylvan Way, PARSIPPANY, NJ, 07054 US</v>
-    <v>173.56</v>
+    <v>178.05500000000001</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45240.03608391172</v>
+    <v>45259.907949085158</v>
     <v>0</v>
-    <v>170.55</v>
-    <v>78338570631</v>
+    <v>175.24</v>
+    <v>80707597323</v>
     <v>ZOETIS INC.</v>
     <v>ZOETIS INC.</v>
-    <v>170.97</v>
-    <v>34.685099999999998</v>
-    <v>170.87</v>
-    <v>170.63</v>
-    <v>170.01</v>
+    <v>177.87</v>
+    <v>35.734000000000002</v>
+    <v>176.97</v>
+    <v>175.79</v>
+    <v>176.06</v>
     <v>459113700</v>
     <v>ZTS</v>
     <v>ZOETIS INC. (XNYS:ZTS)</v>
-    <v>3479316</v>
-    <v>2176767</v>
+    <v>1524408</v>
+    <v>2286714</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -2096,9 +2096,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15859,7 +15859,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15867,297 +15867,297 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="123" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="122" t="e" vm="1">
+    <row r="1" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-    </row>
-    <row r="2" spans="1:16" s="123" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+    </row>
+    <row r="2" spans="1:16" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="73" cm="1">
+      <c r="A3" s="71" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>78338570631</v>
-      </c>
-      <c r="B3" s="74" t="s">
+        <v>80707597323</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="73">
         <f>Financials!O8*0.01</f>
         <v>0.70140000000000002</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="73">
         <f>SUM(C11:E11)/3</f>
         <v>9.0110800047646863E-2</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="74" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="75">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-8.2941157610064709E-3</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="76">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>68819422183.490265</v>
-      </c>
-      <c r="J3" s="79" t="s">
+        <v>68372394696.871742</v>
+      </c>
+      <c r="J3" s="77" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="80">
+      <c r="K3" s="78">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>8.3100826930634277E-3</v>
-      </c>
-      <c r="L3" s="81" t="s">
+        <v>8.066155127808252E-3</v>
+      </c>
+      <c r="L3" s="79" t="s">
         <v>250</v>
       </c>
       <c r="M3" s="38"/>
-      <c r="N3" s="103" t="s">
+      <c r="N3" s="118" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="104"/>
+      <c r="O3" s="119"/>
       <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="82">
+      <c r="A4" s="80">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-5031000000</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>207</v>
       </c>
       <c r="C4" s="40">
         <f>Financials!O17*0.01</f>
         <v>0.36180000000000001</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>208</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C13:E13)/3</f>
         <v>0.12446347695832238</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="83">
         <f>A5*(1+(5*G3))</f>
         <v>440073989.12368</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="82" t="s">
         <v>210</v>
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>59178546700.060684</v>
-      </c>
-      <c r="J4" s="84" t="s">
+        <v>58784353808.355003</v>
+      </c>
+      <c r="J4" s="82" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="86" cm="1">
+      <c r="K4" s="84" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.4050000000000002E-3</v>
-      </c>
-      <c r="L4" s="87" t="s">
+        <v>-6.6679999999999994E-3</v>
+      </c>
+      <c r="L4" s="85" t="s">
         <v>251</v>
       </c>
       <c r="M4" s="38"/>
-      <c r="N4" s="105" t="s">
+      <c r="N4" s="120" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="106"/>
+      <c r="O4" s="121"/>
       <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" cm="1">
+      <c r="A5" s="80" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
         <v>459113700</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="81" t="s">
         <v>213</v>
       </c>
       <c r="C5" s="40">
         <f>Financials!O34*0.01</f>
         <v>0.26920000000000005</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="86" t="s">
         <v>214</v>
       </c>
       <c r="E5" s="40">
         <f>SUM(C16:E16)/3</f>
         <v>1.2531067084484667E-2</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="83">
         <f>Financials!O56</f>
         <v>1714000000</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="82" t="s">
         <v>216</v>
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>54147546700.060684</v>
-      </c>
-      <c r="J5" s="84" t="s">
+        <v>53753353808.355003</v>
+      </c>
+      <c r="J5" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="89" cm="1">
+      <c r="K5" s="87" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>170.63</v>
-      </c>
-      <c r="L5" s="90" t="s">
+        <v>175.79</v>
+      </c>
+      <c r="L5" s="88" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="38"/>
-      <c r="N5" s="107" t="s">
+      <c r="N5" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="108">
+      <c r="O5" s="102">
         <f>Financials!O21</f>
         <v>236000000</v>
       </c>
       <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91">
+      <c r="A6" s="89">
         <f>O20/F10</f>
-        <v>9.1091361198837202</v>
-      </c>
-      <c r="B6" s="83" t="s">
+        <v>9.3846043398837207</v>
+      </c>
+      <c r="B6" s="81" t="s">
         <v>220</v>
       </c>
       <c r="C6" s="40">
         <f>Financials!O190</f>
         <v>0.17870879421065433</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="86" t="s">
         <v>200</v>
       </c>
       <c r="E6" s="40">
         <f>Financials!O33/Financials!O126</f>
         <v>0.47890067085046528</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="83">
         <f>Financials!O96+Financials!O105</f>
         <v>6745000000</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="86">
+      <c r="I6" s="84">
         <f>N25</f>
-        <v>7.3480136771627735E-2</v>
-      </c>
-      <c r="J6" s="84" t="s">
+        <v>7.3797106124361758E-2</v>
+      </c>
+      <c r="J6" s="82" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>123.04191576485758</v>
-      </c>
-      <c r="L6" s="92" t="s">
+        <v>122.14617345459143</v>
+      </c>
+      <c r="L6" s="90" t="s">
         <v>224</v>
       </c>
       <c r="M6" s="38"/>
-      <c r="N6" s="107" t="s">
+      <c r="N6" s="101" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="108">
+      <c r="O6" s="102">
         <f>Financials!O96</f>
         <v>2000000</v>
       </c>
       <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>31.223025361100039</v>
-      </c>
-      <c r="B7" s="94" t="s">
+        <v>32.167236876444797</v>
+      </c>
+      <c r="B7" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="95">
+      <c r="C7" s="93">
         <f>F15/O21</f>
-        <v>2.5175248101536155E-2</v>
-      </c>
-      <c r="D7" s="94" t="s">
+        <v>2.4493269103131085E-2</v>
+      </c>
+      <c r="D7" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="96">
+      <c r="E7" s="94">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.19630916769311982</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="95">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>1.4596407703960181</v>
       </c>
-      <c r="H7" s="98" t="s">
+      <c r="H7" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="99">
+      <c r="I7" s="97">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="101">
+      <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>-0.2788963502030265</v>
-      </c>
-      <c r="L7" s="102" t="s">
+        <v>-0.30515857867574125</v>
+      </c>
+      <c r="L7" s="100" t="s">
         <v>230</v>
       </c>
       <c r="M7" s="38"/>
-      <c r="N7" s="107" t="s">
+      <c r="N7" s="101" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="108">
+      <c r="O7" s="102">
         <f>Financials!O105</f>
         <v>6743000000</v>
       </c>
@@ -16177,101 +16177,101 @@
       <c r="K8" s="38"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38"/>
-      <c r="N8" s="109" t="s">
+      <c r="N8" s="103" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="110">
+      <c r="O8" s="104">
         <f>O5/(O6+O7)</f>
         <v>3.4988880652335061E-2</v>
       </c>
       <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54">
+      <c r="A9" s="51"/>
+      <c r="B9" s="52">
         <v>2019</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <v>2020</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="52">
         <v>2021</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="53">
         <v>2022</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="54">
         <v>2023</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="55">
         <v>2024</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="55">
         <v>2025</v>
       </c>
-      <c r="I9" s="57">
+      <c r="I9" s="55">
         <v>2026</v>
       </c>
-      <c r="J9" s="58">
+      <c r="J9" s="56">
         <v>2027</v>
       </c>
       <c r="K9" s="43"/>
       <c r="L9" s="43"/>
       <c r="M9" s="43"/>
-      <c r="N9" s="107" t="s">
+      <c r="N9" s="101" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="108">
+      <c r="O9" s="102">
         <f>Financials!O25</f>
         <v>619000000</v>
       </c>
       <c r="P9" s="38"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="58">
         <v>6260000000</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="58">
         <v>6675000000</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <v>7776000000</v>
       </c>
-      <c r="E10" s="61">
+      <c r="E10" s="59">
         <v>8080000000</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <v>8600000000</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="58">
         <v>9228000000</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="58">
         <v>9882000000</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="58">
         <v>10295000000</v>
       </c>
-      <c r="J10" s="61">
+      <c r="J10" s="59">
         <v>10812000000</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="60" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="107" t="s">
+      <c r="N10" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="108">
+      <c r="O10" s="102">
         <f>Financials!O24</f>
         <v>2828000000</v>
       </c>
       <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
@@ -16301,72 +16301,72 @@
         <f t="shared" si="0"/>
         <v>4.1793159279498004E-2</v>
       </c>
-      <c r="J11" s="64">
+      <c r="J11" s="62">
         <f t="shared" si="0"/>
         <v>5.0218552695483254E-2</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="62">
         <f>SUM(F11:J11)/5</f>
         <v>6.0052532962182513E-2</v>
       </c>
       <c r="L11" s="43"/>
       <c r="M11" s="43"/>
-      <c r="N11" s="107" t="s">
+      <c r="N11" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="111">
+      <c r="O11" s="105">
         <f>O9/O10</f>
         <v>0.21888260254596889</v>
       </c>
       <c r="P11" s="38"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="60">
+      <c r="B12" s="58">
         <v>1500000000</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="58">
         <v>1638000000</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="58">
         <v>2037000000</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="58">
         <v>2114000000</v>
       </c>
-      <c r="F12" s="65">
+      <c r="F12" s="63">
         <v>2509000000</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <v>2768000000</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="58">
         <v>3066000000</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="58">
         <v>3286000000</v>
       </c>
-      <c r="J12" s="61">
+      <c r="J12" s="59">
         <v>3593000000</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="64" t="s">
         <v>237</v>
       </c>
       <c r="L12" s="43"/>
       <c r="M12" s="43"/>
-      <c r="N12" s="107" t="s">
+      <c r="N12" s="101" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="111">
+      <c r="O12" s="105">
         <f>O8*(1-O11)</f>
         <v>2.7330423394981665E-2</v>
       </c>
       <c r="P12" s="38"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="44"/>
       <c r="C13" s="44">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
@@ -16396,121 +16396,121 @@
         <f t="shared" si="1"/>
         <v>7.1754729288975971E-2</v>
       </c>
-      <c r="J13" s="64">
+      <c r="J13" s="62">
         <f t="shared" si="1"/>
         <v>9.3426658551430286E-2</v>
       </c>
-      <c r="K13" s="64">
+      <c r="K13" s="62">
         <f>SUM(F13:J13)/5</f>
         <v>0.11258365989690966</v>
       </c>
       <c r="L13" s="43"/>
       <c r="M13" s="43"/>
-      <c r="N13" s="105" t="s">
+      <c r="N13" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="106"/>
+      <c r="O13" s="121"/>
       <c r="P13" s="38"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="50">
+      <c r="B14" s="48">
         <f>B12/B10</f>
         <v>0.23961661341853036</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="48">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
         <v>0.2453932584269663</v>
       </c>
-      <c r="D14" s="50">
+      <c r="D14" s="48">
         <f t="shared" si="2"/>
         <v>0.2619598765432099</v>
       </c>
-      <c r="E14" s="50">
+      <c r="E14" s="48">
         <f t="shared" si="2"/>
         <v>0.26163366336633664</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="49">
         <f t="shared" si="2"/>
         <v>0.29174418604651164</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="48">
         <f t="shared" si="2"/>
         <v>0.29995665366276547</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="48">
         <f t="shared" si="2"/>
         <v>0.31026108075288406</v>
       </c>
-      <c r="I14" s="50">
+      <c r="I14" s="48">
         <f t="shared" si="2"/>
         <v>0.31918406993686255</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="50">
         <f t="shared" si="2"/>
         <v>0.33231594524602293</v>
       </c>
-      <c r="K14" s="52"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="43"/>
       <c r="M14" s="43"/>
-      <c r="N14" s="107" t="s">
+      <c r="N14" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="O14" s="111">
+      <c r="O14" s="105">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
+        <v>4.3360000000000003E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="60">
+      <c r="B15" s="58">
         <v>1520730150</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="58">
         <v>1862336673</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="58">
         <v>1919125402</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="58">
         <v>1501651732</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="63">
         <v>2142000000</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="58">
         <v>2488000000</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="58">
         <v>2714000000</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="58">
         <v>3014000000</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J15" s="59">
         <v>3255000000</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="64" t="s">
         <v>240</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="43"/>
-      <c r="N15" s="107" t="s">
+      <c r="N15" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="112" cm="1">
+      <c r="O15" s="106" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.83179999999999998</v>
+        <v>0.84450000000000003</v>
       </c>
       <c r="P15" s="38"/>
     </row>
     <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
@@ -16540,104 +16540,104 @@
         <f t="shared" si="3"/>
         <v>0.11053795136330136</v>
       </c>
-      <c r="J16" s="64">
+      <c r="J16" s="62">
         <f t="shared" si="3"/>
         <v>7.9960185799601957E-2</v>
       </c>
-      <c r="K16" s="64">
+      <c r="K16" s="62">
         <f>SUM(F16:J16)/5</f>
         <v>0.173858941988764</v>
       </c>
       <c r="L16" s="43"/>
       <c r="M16" s="43"/>
-      <c r="N16" s="107" t="s">
+      <c r="N16" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="O16" s="111">
+      <c r="O16" s="105">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="P16" s="38"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="50">
+      <c r="B17" s="48">
         <f>B15/B10</f>
         <v>0.24292813897763579</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="48">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
         <v>0.27900174876404493</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="48">
         <f t="shared" si="4"/>
         <v>0.24680110622427984</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="50">
         <f t="shared" si="4"/>
         <v>0.18584798663366336</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="48">
         <f t="shared" si="4"/>
         <v>0.24906976744186046</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="48">
         <f t="shared" si="4"/>
         <v>0.26961421759861293</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="48">
         <f t="shared" si="4"/>
         <v>0.27464076097955881</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="48">
         <f t="shared" si="4"/>
         <v>0.29276347741622144</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="50">
         <f t="shared" si="4"/>
         <v>0.30105438401775803</v>
       </c>
-      <c r="K17" s="52"/>
+      <c r="K17" s="50"/>
       <c r="L17" s="43"/>
       <c r="M17" s="43"/>
-      <c r="N17" s="113" t="s">
+      <c r="N17" s="107" t="s">
         <v>239</v>
       </c>
-      <c r="O17" s="114">
+      <c r="O17" s="108">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.745365600000001E-2</v>
+        <v>7.7680479999999996E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="69">
+      <c r="B18" s="67">
         <v>0.16241012984225775</v>
       </c>
-      <c r="C18" s="69">
+      <c r="C18" s="67">
         <v>0.15282891782667266</v>
       </c>
-      <c r="D18" s="69">
+      <c r="D18" s="67">
         <v>0.1862540976344467</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="67">
         <v>0.17577843592411752</v>
       </c>
-      <c r="F18" s="70"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="43"/>
       <c r="M18" s="43"/>
-      <c r="N18" s="105" t="s">
+      <c r="N18" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="106"/>
+      <c r="O18" s="121"/>
       <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16654,10 +16654,10 @@
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
       <c r="M19" s="43"/>
-      <c r="N19" s="107" t="s">
+      <c r="N19" s="101" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="115">
+      <c r="O19" s="109">
         <f>O6+O7</f>
         <v>6745000000</v>
       </c>
@@ -16677,26 +16677,26 @@
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
       <c r="M20" s="43"/>
-      <c r="N20" s="107" t="s">
+      <c r="N20" s="101" t="s">
         <v>201</v>
       </c>
-      <c r="O20" s="115" cm="1">
+      <c r="O20" s="109" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>78338570631</v>
+        <v>80707597323</v>
       </c>
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47" t="str" cm="1">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48" cm="1">
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
       </c>
-      <c r="D21" s="48"/>
+      <c r="D21" s="123"/>
       <c r="E21" s="46"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
@@ -16705,24 +16705,24 @@
       <c r="J21" s="43"/>
       <c r="K21" s="43"/>
       <c r="M21" s="43"/>
-      <c r="N21" s="107" t="s">
+      <c r="N21" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="O21" s="115">
+      <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>85083570631</v>
+        <v>87452597323</v>
       </c>
       <c r="P21" s="38"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="47" t="str" cm="1">
+      <c r="A22" s="122" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Zoetis Inc. is an animal health company. The Company is focused on the discovery, development, manufacture and commercialization of medicines, vaccines, diagnostic products and services, biodevices, genetic tests and precision animal health technology. It commercializes products across eight core species: dogs, cats and horses and cattle, swine, poultry, fish and sheep and within product categories, such as vaccines, anti-infectives, parasiticides, dermatology, other pharmaceutical products, medicated feed additives and animal health diagnostics. The Company operates through two segments: the United States and International. Within each of these operating segments, it offers a product portfolio for both companion animal and livestock customers. The Company market its products in approximately 45 countries across North America, Europe, Africa, Asia, Australia and South America. The Company’s products are sold in more than 100 countries.</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="43"/>
@@ -16731,21 +16731,21 @@
       <c r="K22" s="43"/>
       <c r="L22" s="43"/>
       <c r="M22" s="43"/>
-      <c r="N22" s="109" t="s">
+      <c r="N22" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="116">
+      <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>7.9274999273978228E-2</v>
+        <v>7.7127497712707355E-2</v>
       </c>
       <c r="P22" s="38"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="122"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="43"/>
@@ -16754,21 +16754,21 @@
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
       <c r="M23" s="43"/>
-      <c r="N23" s="113" t="s">
+      <c r="N23" s="107" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="117">
+      <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.92072500072602181</v>
+        <v>0.92287250228729267</v>
       </c>
       <c r="P23" s="38"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="122"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="43"/>
@@ -16777,18 +16777,18 @@
       <c r="K24" s="43"/>
       <c r="L24" s="43"/>
       <c r="M24" s="43"/>
-      <c r="N24" s="118" t="s">
+      <c r="N24" s="112" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="119"/>
+      <c r="O24" s="113"/>
       <c r="P24" s="38"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="43"/>
@@ -16797,19 +16797,19 @@
       <c r="K25" s="43"/>
       <c r="L25" s="43"/>
       <c r="M25" s="43"/>
-      <c r="N25" s="120">
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.3480136771627735E-2</v>
-      </c>
-      <c r="O25" s="121"/>
+        <v>7.3797106124361758E-2</v>
+      </c>
+      <c r="O25" s="115"/>
       <c r="P25" s="38"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="43"/>
@@ -16823,11 +16823,11 @@
       <c r="P26" s="38"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="43"/>
@@ -16841,11 +16841,11 @@
       <c r="P27" s="38"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
@@ -16859,11 +16859,11 @@
       <c r="P28" s="38"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="43"/>
@@ -16877,11 +16877,11 @@
       <c r="P29" s="38"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="43"/>

--- a/Healthcare/Zoetis.xlsx
+++ b/Healthcare/Zoetis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA394A-B90C-1B4B-9D01-975CF06281FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275163ED-CB11-4E41-8C4E-FC1A55C8F556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1388,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1706,7 +1706,10 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
@@ -1740,11 +1743,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1762,7 +1768,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.3360000000000003E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1774,6 +1780,9 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1901,11 +1910,11 @@
     <v>Powered by Refinitiv</v>
     <v>194.99</v>
     <v>140.76</v>
-    <v>0.84450000000000003</v>
-    <v>-1.18</v>
-    <v>-6.6679999999999994E-3</v>
-    <v>0.27</v>
-    <v>1.5359999999999998E-3</v>
+    <v>0.8327</v>
+    <v>2.79</v>
+    <v>1.5344E-2</v>
+    <v>-0.77</v>
+    <v>-4.1710000000000002E-3</v>
     <v>USD</v>
     <v>Zoetis Inc. is an animal health company. The Company is focused on the discovery, development, manufacture and commercialization of medicines, vaccines, diagnostic products and services, biodevices, genetic tests and precision animal health technology. It commercializes products across eight core species: dogs, cats and horses and cattle, swine, poultry, fish and sheep and within product categories, such as vaccines, anti-infectives, parasiticides, dermatology, other pharmaceutical products, medicated feed additives and animal health diagnostics. The Company operates through two segments: the United States and International. Within each of these operating segments, it offers a product portfolio for both companion animal and livestock customers. The Company market its products in approximately 45 countries across North America, Europe, Africa, Asia, Australia and South America. The Company’s products are sold in more than 100 countries.</v>
     <v>13800</v>
@@ -1913,25 +1922,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>10 Sylvan Way, PARSIPPANY, NJ, 07054 US</v>
-    <v>178.05500000000001</v>
+    <v>184.85</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45259.907949085158</v>
+    <v>45269.02413450156</v>
     <v>0</v>
-    <v>175.24</v>
-    <v>80707597323</v>
+    <v>181.47</v>
+    <v>84761571294</v>
     <v>ZOETIS INC.</v>
     <v>ZOETIS INC.</v>
-    <v>177.87</v>
-    <v>35.734000000000002</v>
-    <v>176.97</v>
-    <v>175.79</v>
-    <v>176.06</v>
+    <v>182.08</v>
+    <v>36.961799999999997</v>
+    <v>181.83</v>
+    <v>184.62</v>
+    <v>183.83</v>
     <v>459113700</v>
     <v>ZTS</v>
     <v>ZOETIS INC. (XNYS:ZTS)</v>
-    <v>1524408</v>
-    <v>2286714</v>
+    <v>1474667</v>
+    <v>1890386</v>
     <v>2012</v>
   </rv>
   <rv s="2">
@@ -15859,7 +15868,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15908,7 +15917,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="71" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>80707597323</v>
+        <v>84761571294</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>201</v>
@@ -15936,14 +15945,14 @@
       </c>
       <c r="I3" s="76">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>68372394696.871742</v>
+        <v>69231228219.126251</v>
       </c>
       <c r="J3" s="77" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="78">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>8.066155127808252E-3</v>
+        <v>7.6803672945369552E-3</v>
       </c>
       <c r="L3" s="79" t="s">
         <v>250</v>
@@ -15986,14 +15995,14 @@
       </c>
       <c r="I4" s="39">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>58784353808.355003</v>
+        <v>59541690653.757065</v>
       </c>
       <c r="J4" s="82" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="84" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-6.6679999999999994E-3</v>
+        <v>1.5344E-2</v>
       </c>
       <c r="L4" s="85" t="s">
         <v>251</v>
@@ -16036,14 +16045,14 @@
       </c>
       <c r="I5" s="39">
         <f>I4+G5-G6</f>
-        <v>53753353808.355003</v>
+        <v>54510690653.757065</v>
       </c>
       <c r="J5" s="82" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="87" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>175.79</v>
+        <v>184.62</v>
       </c>
       <c r="L5" s="88" t="s">
         <v>218</v>
@@ -16061,7 +16070,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="89">
         <f>O20/F10</f>
-        <v>9.3846043398837207</v>
+        <v>9.8559966620930233</v>
       </c>
       <c r="B6" s="81" t="s">
         <v>220</v>
@@ -16089,14 +16098,14 @@
       </c>
       <c r="I6" s="84">
         <f>N25</f>
-        <v>7.3797106124361758E-2</v>
+        <v>7.3191763830043846E-2</v>
       </c>
       <c r="J6" s="82" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="41">
         <f>I5/G4</f>
-        <v>122.14617345459143</v>
+        <v>123.86710417106062</v>
       </c>
       <c r="L6" s="90" t="s">
         <v>224</v>
@@ -16114,14 +16123,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <f>O20/F12</f>
-        <v>32.167236876444797</v>
+        <v>33.783009682742126</v>
       </c>
       <c r="B7" s="92" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="93">
         <f>F15/O21</f>
-        <v>2.4493269103131085E-2</v>
+        <v>2.3408154952260229E-2</v>
       </c>
       <c r="D7" s="92" t="s">
         <v>227</v>
@@ -16148,7 +16157,7 @@
       </c>
       <c r="K7" s="99">
         <f>K6/K5-1</f>
-        <v>-0.30515857867574125</v>
+        <v>-0.32906995899111358</v>
       </c>
       <c r="L7" s="100" t="s">
         <v>230</v>
@@ -16460,7 +16469,7 @@
       </c>
       <c r="O14" s="105">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.3360000000000003E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="38"/>
     </row>
@@ -16505,7 +16514,7 @@
       </c>
       <c r="O15" s="106" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.84450000000000003</v>
+        <v>0.8327</v>
       </c>
       <c r="P15" s="38"/>
     </row>
@@ -16606,7 +16615,7 @@
       </c>
       <c r="O17" s="108">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.7680479999999996E-2</v>
+        <v>7.6841233000000009E-2</v>
       </c>
       <c r="P17" s="38"/>
     </row>
@@ -16682,21 +16691,21 @@
       </c>
       <c r="O20" s="109" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>80707597323</v>
+        <v>84761571294</v>
       </c>
       <c r="P20" s="38"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="122" t="str" cm="1">
+      <c r="A21" s="123" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123" cm="1">
+      <c r="B21" s="123"/>
+      <c r="C21" s="124" cm="1">
         <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>2012</v>
       </c>
-      <c r="D21" s="123"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="46"/>
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
@@ -16710,7 +16719,7 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>87452597323</v>
+        <v>91506571294</v>
       </c>
       <c r="P21" s="38"/>
     </row>
@@ -16736,7 +16745,7 @@
       </c>
       <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>7.7127497712707355E-2</v>
+        <v>7.3710553292714878E-2</v>
       </c>
       <c r="P22" s="38"/>
     </row>
@@ -16759,7 +16768,7 @@
       </c>
       <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.92287250228729267</v>
+        <v>0.92628944670728508</v>
       </c>
       <c r="P23" s="38"/>
     </row>
@@ -16799,7 +16808,7 @@
       <c r="M25" s="43"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.3797106124361758E-2</v>
+        <v>7.3191763830043846E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="38"/>
